--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAURAV\IdeaProjects\hotel-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDED6AF6-C907-4350-A653-642BBEED5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D8202-C9B5-4A17-94D4-61EE26A10726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E627E53-C041-4004-8C22-90D003D9E368}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E627E53-C041-4004-8C22-90D003D9E368}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateUsers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>q@hh.com</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>88888@hg</t>
+  </si>
+  <si>
+    <t>rerer</t>
+  </si>
+  <si>
+    <t>11111@hg</t>
   </si>
 </sst>
 </file>
@@ -413,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9972BE6-E1DA-450E-B2F0-F89C52F94B6D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,4 +475,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E934D7F-4B15-48DA-B748-A354A10193BF}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>88888</v>
+      </c>
+      <c r="C2">
+        <v>88888</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>88888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>11111</v>
+      </c>
+      <c r="C3">
+        <v>1111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{29F7F4E4-CE03-45A8-AB92-BEC3810003E2}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F792C2FE-380D-4863-8331-30D50C5765F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>